--- a/no-basis/CurrentBuild/ValueSet-no-basis-location-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-location-type.valueset.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from no-basis-locatio" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from v3-ServiceDelive" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from RoleCode" r:id="rId5" sheetId="3"/>
+    <sheet name="Exclude from RoleCode" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -109,7 +110,22 @@
     <t>http://hl7.no/fhir/CodeSystem/no-basis-location-type</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>_ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+  </si>
+  <si>
+    <t>Concept</t>
   </si>
 </sst>
 </file>
@@ -411,6 +427,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -423,13 +494,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -444,7 +519,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-location-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-location-type.valueset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Norway</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -247,10 +244,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -337,44 +334,42 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -396,28 +391,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -442,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -450,29 +445,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -494,32 +489,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
